--- a/DesignerConfigs/Datas/LoadingTitleSprite.xlsx
+++ b/DesignerConfigs/Datas/LoadingTitleSprite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTitleSprite" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -65,15 +65,18 @@
     <t>Chinese_s</t>
   </si>
   <si>
+    <t>UI/Logo/Chinese_Logo.png</t>
+  </si>
+  <si>
+    <t>Chinese_t</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>UI/Logo/English_Logo.png</t>
   </si>
   <si>
-    <t>Chinese_t</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
@@ -95,28 +98,55 @@
     <t>French</t>
   </si>
   <si>
+    <t>UI/Logo/French_Logo.png</t>
+  </si>
+  <si>
     <t>Spanish</t>
   </si>
   <si>
+    <t>UI/Logo/Spanish_Logo.png</t>
+  </si>
+  <si>
     <t>Korean</t>
   </si>
   <si>
+    <t>UI/Logo/Korean_Logo.png</t>
+  </si>
+  <si>
     <t>Indonesian</t>
   </si>
   <si>
+    <t>UI/Logo/Indonesian_Logo.png</t>
+  </si>
+  <si>
     <t>Russian</t>
   </si>
   <si>
+    <t>UI/Logo/Russian_Logo.png</t>
+  </si>
+  <si>
     <t>Hindi</t>
   </si>
   <si>
+    <t>UI/Logo/Hindi_Logo.png</t>
+  </si>
+  <si>
     <t>Thai</t>
   </si>
   <si>
+    <t>UI/Logo/Thai_Logo.png</t>
+  </si>
+  <si>
     <t>Turkish</t>
   </si>
   <si>
+    <t>UI/Logo/Turkish_Logo.png</t>
+  </si>
+  <si>
     <t>Arabic</t>
+  </si>
+  <si>
+    <t>UI/Logo/Arabic_Logo.png</t>
   </si>
   <si>
     <t>LengthTest</t>
@@ -299,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,18 +369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,85 +712,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,7 +1336,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1415,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1423,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1434,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1445,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1456,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1467,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1478,10 +1496,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -1489,10 +1507,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -1500,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1511,10 +1529,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1522,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1533,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1544,10 +1562,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -1555,10 +1573,10 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
